--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>3.338712282992445</v>
+        <v>0.8407907170636667</v>
       </c>
       <c r="R2">
-        <v>30.048410546932</v>
+        <v>7.567116453573</v>
       </c>
       <c r="S2">
-        <v>0.007287258872676076</v>
+        <v>0.01597022395992607</v>
       </c>
       <c r="T2">
-        <v>0.007287258872676076</v>
+        <v>0.01597022395992607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H3">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>3.850003567637555</v>
+        <v>1.096621685631667</v>
       </c>
       <c r="R3">
-        <v>34.650032108738</v>
+        <v>9.869595170685001</v>
       </c>
       <c r="S3">
-        <v>0.008403231629457783</v>
+        <v>0.02082955194844666</v>
       </c>
       <c r="T3">
-        <v>0.008403231629457785</v>
+        <v>0.02082955194844666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>271.318122</v>
       </c>
       <c r="I4">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J4">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>25.56184496027601</v>
+        <v>8.106050945162</v>
       </c>
       <c r="R4">
-        <v>230.056604642484</v>
+        <v>72.954458506458</v>
       </c>
       <c r="S4">
-        <v>0.05579270260502499</v>
+        <v>0.1539686944652659</v>
       </c>
       <c r="T4">
-        <v>0.055792702605025</v>
+        <v>0.1539686944652659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>271.318122</v>
       </c>
       <c r="I5">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J5">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>29.476392678034</v>
+        <v>10.57251355289</v>
       </c>
       <c r="R5">
-        <v>265.287534102306</v>
+        <v>95.15262197601</v>
       </c>
       <c r="S5">
-        <v>0.06433681188154464</v>
+        <v>0.2008174041795726</v>
       </c>
       <c r="T5">
-        <v>0.06433681188154466</v>
+        <v>0.2008174041795726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H6">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I6">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J6">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>107.8687578794907</v>
+        <v>8.979048290348999</v>
       </c>
       <c r="R6">
-        <v>970.8188209154162</v>
+        <v>80.811434613141</v>
       </c>
       <c r="S6">
-        <v>0.2354403423577798</v>
+        <v>0.1705506605075974</v>
       </c>
       <c r="T6">
-        <v>0.2354403423577798</v>
+        <v>0.1705506605075974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H7">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I7">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J7">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>124.3878080744493</v>
+        <v>11.711141514405</v>
       </c>
       <c r="R7">
-        <v>1119.490272670044</v>
+        <v>105.400273629645</v>
       </c>
       <c r="S7">
-        <v>0.2714957388394137</v>
+        <v>0.2224448355764533</v>
       </c>
       <c r="T7">
-        <v>0.2714957388394138</v>
+        <v>0.2224448355764533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H8">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I8">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J8">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N8">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q8">
-        <v>0.7939571348726666</v>
+        <v>0.1279580607764444</v>
       </c>
       <c r="R8">
-        <v>7.145614213854</v>
+        <v>1.151622546988</v>
       </c>
       <c r="S8">
-        <v>0.001732934941743349</v>
+        <v>0.002430472704568299</v>
       </c>
       <c r="T8">
-        <v>0.001732934941743349</v>
+        <v>0.002430472704568299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H9">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I9">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J9">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N9">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O9">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P9">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q9">
-        <v>0.9155439411123332</v>
+        <v>0.1668924043177778</v>
       </c>
       <c r="R9">
-        <v>8.239895470011</v>
+        <v>1.50203163886</v>
       </c>
       <c r="S9">
-        <v>0.001998317058400677</v>
+        <v>0.003170002974668452</v>
       </c>
       <c r="T9">
-        <v>0.001998317058400678</v>
+        <v>0.003170002974668452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H10">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I10">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J10">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N10">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q10">
-        <v>75.22244546982802</v>
+        <v>4.793864949823999</v>
       </c>
       <c r="R10">
-        <v>677.0020092284522</v>
+        <v>43.14478454841599</v>
       </c>
       <c r="S10">
-        <v>0.1641846876014973</v>
+        <v>0.09105606820886414</v>
       </c>
       <c r="T10">
-        <v>0.1641846876014973</v>
+        <v>0.09105606820886414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H11">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I11">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J11">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N11">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O11">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P11">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q11">
-        <v>86.74203072260201</v>
+        <v>6.252514633279999</v>
       </c>
       <c r="R11">
-        <v>780.678276503418</v>
+        <v>56.27263169951999</v>
       </c>
       <c r="S11">
-        <v>0.1893279742124616</v>
+        <v>0.1187620854746371</v>
       </c>
       <c r="T11">
-        <v>0.1893279742124616</v>
+        <v>0.1187620854746371</v>
       </c>
     </row>
   </sheetData>
